--- a/Code/Results/Cases/Case_5_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266053372567342</v>
+        <v>1.41439309687118</v>
       </c>
       <c r="C2">
-        <v>0.1606810873135771</v>
+        <v>0.07513119594497653</v>
       </c>
       <c r="D2">
-        <v>0.00574539609626612</v>
+        <v>0.0116182754094396</v>
       </c>
       <c r="E2">
-        <v>0.02053548684510442</v>
+        <v>0.06358328784659673</v>
       </c>
       <c r="F2">
-        <v>2.003044937880674</v>
+        <v>3.767704608165189</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.2211426106186</v>
+        <v>2.378409290992209</v>
       </c>
       <c r="J2">
-        <v>0.05788280501991405</v>
+        <v>0.1458084058800759</v>
       </c>
       <c r="K2">
-        <v>1.306071289300149</v>
+        <v>1.245497301426269</v>
       </c>
       <c r="L2">
-        <v>0.1728521528124958</v>
+        <v>0.3418581033704982</v>
       </c>
       <c r="M2">
-        <v>0.2642752963064936</v>
+        <v>0.3636948708781311</v>
       </c>
       <c r="N2">
-        <v>2.088378956465249</v>
+        <v>4.004334293927499</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.12487676153637</v>
+        <v>1.385652285262694</v>
       </c>
       <c r="C3">
-        <v>0.1393627634177932</v>
+        <v>0.06958702018067697</v>
       </c>
       <c r="D3">
-        <v>0.004990333623069887</v>
+        <v>0.01145343688971856</v>
       </c>
       <c r="E3">
-        <v>0.02039288758764801</v>
+        <v>0.06374172123274935</v>
       </c>
       <c r="F3">
-        <v>1.946348379999307</v>
+        <v>3.769346261606387</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.202626298353657</v>
+        <v>2.382981102763537</v>
       </c>
       <c r="J3">
-        <v>0.05872338836120683</v>
+        <v>0.1463132986270743</v>
       </c>
       <c r="K3">
-        <v>1.153634761052473</v>
+        <v>1.212520268991852</v>
       </c>
       <c r="L3">
-        <v>0.161677301277166</v>
+        <v>0.3407908606219223</v>
       </c>
       <c r="M3">
-        <v>0.2381284682833034</v>
+        <v>0.3590000546155778</v>
       </c>
       <c r="N3">
-        <v>2.132247747246453</v>
+        <v>4.024153980476456</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.039493058817868</v>
+        <v>1.36873286538119</v>
       </c>
       <c r="C4">
-        <v>0.1264580798047632</v>
+        <v>0.06622488734093679</v>
       </c>
       <c r="D4">
-        <v>0.004527621650714408</v>
+        <v>0.01135633486415877</v>
       </c>
       <c r="E4">
-        <v>0.02031731991106245</v>
+        <v>0.06385006569862028</v>
       </c>
       <c r="F4">
-        <v>1.914132886286339</v>
+        <v>3.771710713770716</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.192768980287049</v>
+        <v>2.386574929847782</v>
       </c>
       <c r="J4">
-        <v>0.05926660770190573</v>
+        <v>0.1466427731050635</v>
       </c>
       <c r="K4">
-        <v>1.061417978181538</v>
+        <v>1.192950057888055</v>
       </c>
       <c r="L4">
-        <v>0.155009258970054</v>
+        <v>0.3402659181184831</v>
       </c>
       <c r="M4">
-        <v>0.222361115802002</v>
+        <v>0.3562897929574689</v>
       </c>
       <c r="N4">
-        <v>2.161016221996114</v>
+        <v>4.037206725149879</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.004997198579872</v>
+        <v>1.362021437493667</v>
       </c>
       <c r="C5">
-        <v>0.1212401925032225</v>
+        <v>0.06486530894530063</v>
       </c>
       <c r="D5">
-        <v>0.00433919959347584</v>
+        <v>0.01131780850657904</v>
       </c>
       <c r="E5">
-        <v>0.02028948376629636</v>
+        <v>0.06389700823586697</v>
       </c>
       <c r="F5">
-        <v>1.901626700153329</v>
+        <v>3.773015631818694</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.189115933895643</v>
+        <v>2.388237422814512</v>
       </c>
       <c r="J5">
-        <v>0.0594947569835762</v>
+        <v>0.1467819426260775</v>
       </c>
       <c r="K5">
-        <v>1.02415367616382</v>
+        <v>1.185145767169928</v>
       </c>
       <c r="L5">
-        <v>0.1523379484663678</v>
+        <v>0.3400848518814286</v>
       </c>
       <c r="M5">
-        <v>0.2160025283144833</v>
+        <v>0.3552287840750807</v>
       </c>
       <c r="N5">
-        <v>2.173188355547204</v>
+        <v>4.042748035554368</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.999286439912936</v>
+        <v>1.360918097843665</v>
       </c>
       <c r="C6">
-        <v>0.1203760778204099</v>
+        <v>0.06464018590193632</v>
       </c>
       <c r="D6">
-        <v>0.004307918118948706</v>
+        <v>0.01131147455966364</v>
       </c>
       <c r="E6">
-        <v>0.02028503870219289</v>
+        <v>0.06390497185234167</v>
       </c>
       <c r="F6">
-        <v>1.899586746557389</v>
+        <v>3.773252939854117</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.18853086950088</v>
+        <v>2.388525440517625</v>
       </c>
       <c r="J6">
-        <v>0.05953304980936558</v>
+        <v>0.1468053482395923</v>
       </c>
       <c r="K6">
-        <v>1.017984075155908</v>
+        <v>1.183860190781559</v>
       </c>
       <c r="L6">
-        <v>0.1518970813773066</v>
+        <v>0.3400567723660615</v>
       </c>
       <c r="M6">
-        <v>0.2149505684489093</v>
+        <v>0.3550552312675705</v>
       </c>
       <c r="N6">
-        <v>2.175236291606446</v>
+        <v>4.043681589290244</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.039026662018159</v>
+        <v>1.368641609684005</v>
       </c>
       <c r="C7">
-        <v>0.1263875512026544</v>
+        <v>0.06620650906445746</v>
       </c>
       <c r="D7">
-        <v>0.004525080080911792</v>
+        <v>0.01135581104564309</v>
       </c>
       <c r="E7">
-        <v>0.02031693259634615</v>
+        <v>0.06385068746847633</v>
       </c>
       <c r="F7">
-        <v>1.913961745105667</v>
+        <v>3.771726929723116</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.192718261420112</v>
+        <v>2.386596549001737</v>
       </c>
       <c r="J7">
-        <v>0.05926965717784682</v>
+        <v>0.1466446301160014</v>
       </c>
       <c r="K7">
-        <v>1.060914185355614</v>
+        <v>1.192844114838067</v>
       </c>
       <c r="L7">
-        <v>0.1549730499979987</v>
+        <v>0.3402633430793429</v>
       </c>
       <c r="M7">
-        <v>0.2222750983664028</v>
+        <v>0.356275307781825</v>
       </c>
       <c r="N7">
-        <v>2.161178578170158</v>
+        <v>4.037280557383774</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.217088565120207</v>
+        <v>1.404332501681523</v>
       </c>
       <c r="C8">
-        <v>0.1532886715147725</v>
+        <v>0.07321081431493326</v>
       </c>
       <c r="D8">
-        <v>0.005484806324940195</v>
+        <v>0.01156059212556215</v>
       </c>
       <c r="E8">
-        <v>0.02048379494670005</v>
+        <v>0.06363562419010105</v>
       </c>
       <c r="F8">
-        <v>1.982937813830162</v>
+        <v>3.7679892804031</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.214434317955536</v>
+        <v>2.379822457075463</v>
       </c>
       <c r="J8">
-        <v>0.05816699480780674</v>
+        <v>0.1459784586039472</v>
       </c>
       <c r="K8">
-        <v>1.253204752123764</v>
+        <v>1.233986296130496</v>
       </c>
       <c r="L8">
-        <v>0.1689572828940342</v>
+        <v>0.341463107890803</v>
       </c>
       <c r="M8">
-        <v>0.2551969582480176</v>
+        <v>0.3620403792188398</v>
       </c>
       <c r="N8">
-        <v>2.103116964552342</v>
+        <v>4.010984824322193</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.577946540897614</v>
+        <v>1.480081863559917</v>
       </c>
       <c r="C9">
-        <v>0.2077824025311799</v>
+        <v>0.08728246959114472</v>
       </c>
       <c r="D9">
-        <v>0.007378712062614312</v>
+        <v>0.0119943642857443</v>
       </c>
       <c r="E9">
-        <v>0.02090895370733215</v>
+        <v>0.0633013118491661</v>
       </c>
       <c r="F9">
-        <v>2.140306205127558</v>
+        <v>3.771413321634924</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.269803104642605</v>
+        <v>2.372775455262939</v>
       </c>
       <c r="J9">
-        <v>0.0562211576541447</v>
+        <v>0.1448260928000966</v>
       </c>
       <c r="K9">
-        <v>1.642807190926277</v>
+        <v>1.320037491808108</v>
       </c>
       <c r="L9">
-        <v>0.1980439002030181</v>
+        <v>0.3448472720327089</v>
       </c>
       <c r="M9">
-        <v>0.3222972353530977</v>
+        <v>0.3747100147999305</v>
       </c>
       <c r="N9">
-        <v>2.004386833444627</v>
+        <v>3.966424602519595</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.852262240619638</v>
+        <v>1.539236436787519</v>
       </c>
       <c r="C10">
-        <v>0.2492955272663266</v>
+        <v>0.09783098796006584</v>
       </c>
       <c r="D10">
-        <v>0.008785198600691047</v>
+        <v>0.01233218623664811</v>
       </c>
       <c r="E10">
-        <v>0.02128538285464288</v>
+        <v>0.06310849629422055</v>
       </c>
       <c r="F10">
-        <v>2.271667763529081</v>
+        <v>3.780476821145058</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.319462060204479</v>
+        <v>2.371395330883999</v>
       </c>
       <c r="J10">
-        <v>0.05492570220569526</v>
+        <v>0.1440726647764965</v>
       </c>
       <c r="K10">
-        <v>1.939062166419546</v>
+        <v>1.38653359748227</v>
       </c>
       <c r="L10">
-        <v>0.2206234314010231</v>
+        <v>0.3479592734737764</v>
       </c>
       <c r="M10">
-        <v>0.3735442744655515</v>
+        <v>0.3848471188867961</v>
       </c>
       <c r="N10">
-        <v>1.941950112732243</v>
+        <v>3.937952070596396</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.979556830665103</v>
+        <v>1.566906207618956</v>
       </c>
       <c r="C11">
-        <v>0.2686034465332057</v>
+        <v>0.1026765632288118</v>
       </c>
       <c r="D11">
-        <v>0.0094303817211987</v>
+        <v>0.01248992391104053</v>
       </c>
       <c r="E11">
-        <v>0.02147162968887084</v>
+        <v>0.06303214242175059</v>
       </c>
       <c r="F11">
-        <v>2.335398381597258</v>
+        <v>3.786020607849537</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.344292317073581</v>
+        <v>2.371591185374257</v>
       </c>
       <c r="J11">
-        <v>0.05436603634335846</v>
+        <v>0.1437500110240304</v>
       </c>
       <c r="K11">
-        <v>2.076591360602009</v>
+        <v>1.417495914043172</v>
       </c>
       <c r="L11">
-        <v>0.2312056185604945</v>
+        <v>0.3495102468378519</v>
       </c>
       <c r="M11">
-        <v>0.397378260010278</v>
+        <v>0.3896381665626478</v>
       </c>
       <c r="N11">
-        <v>1.915954423661091</v>
+        <v>3.925924507755965</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.028166161694799</v>
+        <v>1.577493034188478</v>
       </c>
       <c r="C12">
-        <v>0.2759850564542035</v>
+        <v>0.1045182850908475</v>
       </c>
       <c r="D12">
-        <v>0.009675666675462935</v>
+        <v>0.01255022999182742</v>
       </c>
       <c r="E12">
-        <v>0.02154441495689596</v>
+        <v>0.06300485413346646</v>
       </c>
       <c r="F12">
-        <v>2.360153319195845</v>
+        <v>3.788324018584575</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.354043478595685</v>
+        <v>2.371783695792601</v>
       </c>
       <c r="J12">
-        <v>0.05415842056022413</v>
+        <v>0.1436307079409715</v>
       </c>
       <c r="K12">
-        <v>2.129119811512595</v>
+        <v>1.429322913603443</v>
       </c>
       <c r="L12">
-        <v>0.2352617842917368</v>
+        <v>0.3501169541936662</v>
       </c>
       <c r="M12">
-        <v>0.4064873517222125</v>
+        <v>0.3914781673294812</v>
       </c>
       <c r="N12">
-        <v>1.906476673644804</v>
+        <v>3.921502910547503</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.017678470652015</v>
+        <v>1.575208135486321</v>
       </c>
       <c r="C13">
-        <v>0.2743920197054308</v>
+        <v>0.1041213337798865</v>
       </c>
       <c r="D13">
-        <v>0.009622793692990683</v>
+        <v>0.0125372166111255</v>
       </c>
       <c r="E13">
-        <v>0.02152863724277054</v>
+        <v>0.06301065899919056</v>
       </c>
       <c r="F13">
-        <v>2.354793411323357</v>
+        <v>3.787818863707599</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.351927447843721</v>
+        <v>2.371736973379143</v>
       </c>
       <c r="J13">
-        <v>0.05420294138246007</v>
+        <v>0.1436562741012679</v>
       </c>
       <c r="K13">
-        <v>2.117786015826539</v>
+        <v>1.426771214694753</v>
       </c>
       <c r="L13">
-        <v>0.2343859690099777</v>
+        <v>0.3499854277547598</v>
       </c>
       <c r="M13">
-        <v>0.4045216775815916</v>
+        <v>0.3910807471823077</v>
       </c>
       <c r="N13">
-        <v>1.908501247264866</v>
+        <v>3.922449266193837</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.983547547443607</v>
+        <v>1.567775012338814</v>
       </c>
       <c r="C14">
-        <v>0.2692092747226695</v>
+        <v>0.1028279460768715</v>
       </c>
       <c r="D14">
-        <v>0.00945054083688035</v>
+        <v>0.01249487387514137</v>
       </c>
       <c r="E14">
-        <v>0.02147757192352717</v>
+        <v>0.06302986487150353</v>
       </c>
       <c r="F14">
-        <v>2.337422225645</v>
+        <v>3.786206021541346</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.345087407587343</v>
+        <v>2.371604652082382</v>
       </c>
       <c r="J14">
-        <v>0.05434886880572343</v>
+        <v>0.1437401382429879</v>
       </c>
       <c r="K14">
-        <v>2.080903591913398</v>
+        <v>1.418466880879691</v>
       </c>
       <c r="L14">
-        <v>0.2315383156439026</v>
+        <v>0.3495597728623494</v>
       </c>
       <c r="M14">
-        <v>0.3981259409038671</v>
+        <v>0.3897890293091564</v>
       </c>
       <c r="N14">
-        <v>1.915167221367497</v>
+        <v>3.925558075141851</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.962695603740883</v>
+        <v>1.563236177670888</v>
       </c>
       <c r="C15">
-        <v>0.2660441143086416</v>
+        <v>0.1020365967800103</v>
       </c>
       <c r="D15">
-        <v>0.009345163361139441</v>
+        <v>0.01246901222553731</v>
       </c>
       <c r="E15">
-        <v>0.02144659008067862</v>
+        <v>0.06304184044029792</v>
       </c>
       <c r="F15">
-        <v>2.32686437895272</v>
+        <v>3.785244682885235</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.340943890137709</v>
+        <v>2.371539010511782</v>
       </c>
       <c r="J15">
-        <v>0.05443881755120117</v>
+        <v>0.1437918820957851</v>
       </c>
       <c r="K15">
-        <v>2.058372156196441</v>
+        <v>1.413393543551081</v>
       </c>
       <c r="L15">
-        <v>0.2298005491246897</v>
+        <v>0.3493015697003869</v>
       </c>
       <c r="M15">
-        <v>0.3942195359529492</v>
+        <v>0.389001163452356</v>
       </c>
       <c r="N15">
-        <v>1.919298648581673</v>
+        <v>3.927479628473321</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.843997456008992</v>
+        <v>1.53744341134302</v>
       </c>
       <c r="C16">
-        <v>0.2480429993182725</v>
+        <v>0.09751526818632783</v>
       </c>
       <c r="D16">
-        <v>0.008743158529540551</v>
+        <v>0.01232195859034491</v>
       </c>
       <c r="E16">
-        <v>0.02127352145813433</v>
+        <v>0.06311371407302069</v>
       </c>
       <c r="F16">
-        <v>2.267586963044806</v>
+        <v>3.78014309334867</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.317886622200071</v>
+        <v>2.371399097304497</v>
       </c>
       <c r="J16">
-        <v>0.05496287876138517</v>
+        <v>0.1440941543176262</v>
       </c>
       <c r="K16">
-        <v>1.930134221067078</v>
+        <v>1.38452445937935</v>
       </c>
       <c r="L16">
-        <v>0.2199384666932076</v>
+        <v>0.3478606304910983</v>
       </c>
       <c r="M16">
-        <v>0.3719978865988125</v>
+        <v>0.384537619067757</v>
       </c>
       <c r="N16">
-        <v>1.943699107201837</v>
+        <v>3.938756708394322</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.771852984878223</v>
+        <v>1.521814760772827</v>
       </c>
       <c r="C17">
-        <v>0.2371146469158418</v>
+        <v>0.09475365245363321</v>
       </c>
       <c r="D17">
-        <v>0.008375353856081347</v>
+        <v>0.01223277906379039</v>
       </c>
       <c r="E17">
-        <v>0.02117126095215927</v>
+        <v>0.06316070969878851</v>
       </c>
       <c r="F17">
-        <v>2.232274233222753</v>
+        <v>3.777377176514491</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.304333522998775</v>
+        <v>2.371524157595339</v>
       </c>
       <c r="J17">
-        <v>0.0552920031823394</v>
+        <v>0.1442847260495732</v>
       </c>
       <c r="K17">
-        <v>1.852207260584578</v>
+        <v>1.366996608479639</v>
       </c>
       <c r="L17">
-        <v>0.2139708740473907</v>
+        <v>0.3470112668621397</v>
       </c>
       <c r="M17">
-        <v>0.3585051338685616</v>
+        <v>0.3818453182075316</v>
       </c>
       <c r="N17">
-        <v>1.95929825890741</v>
+        <v>3.945911680021268</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.730590439484018</v>
+        <v>1.51289713901167</v>
       </c>
       <c r="C18">
-        <v>0.2308681978868634</v>
+        <v>0.09316966517735636</v>
       </c>
       <c r="D18">
-        <v>0.008164294063728761</v>
+        <v>0.01218186814768174</v>
       </c>
       <c r="E18">
-        <v>0.02111384944085248</v>
+        <v>0.06318880997483056</v>
       </c>
       <c r="F18">
-        <v>2.212334046839487</v>
+        <v>3.775920034399462</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.296747283203686</v>
+        <v>2.371673623390151</v>
       </c>
       <c r="J18">
-        <v>0.05548409344380723</v>
+        <v>0.1443962288579037</v>
       </c>
       <c r="K18">
-        <v>1.80764226586399</v>
+        <v>1.356982170309152</v>
       </c>
       <c r="L18">
-        <v>0.2105674368305728</v>
+        <v>0.3465354753658332</v>
       </c>
       <c r="M18">
-        <v>0.3507929774655452</v>
+        <v>0.3803136910710023</v>
       </c>
       <c r="N18">
-        <v>1.968495736973949</v>
+        <v>3.950114070315621</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.71665836450336</v>
+        <v>1.509890089377024</v>
       </c>
       <c r="C19">
-        <v>0.2287597310964173</v>
+        <v>0.09263411213514416</v>
       </c>
       <c r="D19">
-        <v>0.008092911738970088</v>
+        <v>0.01216469662792008</v>
       </c>
       <c r="E19">
-        <v>0.02109464950281215</v>
+        <v>0.06319850820475992</v>
       </c>
       <c r="F19">
-        <v>2.205644863915097</v>
+        <v>3.775449647402525</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.294213867813518</v>
+        <v>2.371737549639185</v>
       </c>
       <c r="J19">
-        <v>0.05554960891601723</v>
+        <v>0.1444343068544409</v>
       </c>
       <c r="K19">
-        <v>1.792595871497468</v>
+        <v>1.353602989561381</v>
       </c>
       <c r="L19">
-        <v>0.2094199424272674</v>
+        <v>0.3463765707809756</v>
       </c>
       <c r="M19">
-        <v>0.3481898540107338</v>
+        <v>0.3797980161985564</v>
       </c>
       <c r="N19">
-        <v>1.971647949799447</v>
+        <v>3.951551876601485</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.779508453107638</v>
+        <v>1.523471053613406</v>
       </c>
       <c r="C20">
-        <v>0.2382738622272029</v>
+        <v>0.09504717324749379</v>
       </c>
       <c r="D20">
-        <v>0.008414455060297144</v>
+        <v>0.01224223283046655</v>
       </c>
       <c r="E20">
-        <v>0.02118200054950403</v>
+        <v>0.06315559629019774</v>
       </c>
       <c r="F20">
-        <v>2.235994611874347</v>
+        <v>3.77765777296608</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.305754444349233</v>
+        <v>2.37150282091477</v>
       </c>
       <c r="J20">
-        <v>0.05525667854187155</v>
+        <v>0.1442642437203929</v>
       </c>
       <c r="K20">
-        <v>1.860475805919009</v>
+        <v>1.368855533644279</v>
       </c>
       <c r="L20">
-        <v>0.2146031071433043</v>
+        <v>0.3471003650357005</v>
       </c>
       <c r="M20">
-        <v>0.3599363783904366</v>
+        <v>0.3821301684794918</v>
       </c>
       <c r="N20">
-        <v>1.957614249239143</v>
+        <v>3.945141012748309</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.993561238773282</v>
+        <v>1.569955348942358</v>
       </c>
       <c r="C21">
-        <v>0.2707295916036401</v>
+        <v>0.1032076602482732</v>
       </c>
       <c r="D21">
-        <v>0.009501107700160105</v>
+        <v>0.01250729545467166</v>
       </c>
       <c r="E21">
-        <v>0.02149250892964094</v>
+        <v>0.06302417959648121</v>
       </c>
       <c r="F21">
-        <v>2.342507273941436</v>
+        <v>3.786674214794928</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.347086813825243</v>
+        <v>2.371640306997278</v>
       </c>
       <c r="J21">
-        <v>0.05430588874524922</v>
+        <v>0.1437154272525536</v>
       </c>
       <c r="K21">
-        <v>2.091724226654719</v>
+        <v>1.420903292354183</v>
       </c>
       <c r="L21">
-        <v>0.2323733770536762</v>
+        <v>0.3496842724076288</v>
       </c>
       <c r="M21">
-        <v>0.4000021797055169</v>
+        <v>0.3901677404762225</v>
       </c>
       <c r="N21">
-        <v>1.913199153644811</v>
+        <v>3.924641333507424</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.135845323388253</v>
+        <v>1.600969999031122</v>
       </c>
       <c r="C22">
-        <v>0.2923549269754915</v>
+        <v>0.1085807134528523</v>
       </c>
       <c r="D22">
-        <v>0.01021705229398506</v>
+        <v>0.01268387197209009</v>
       </c>
       <c r="E22">
-        <v>0.02170865709307002</v>
+        <v>0.06294776075781705</v>
       </c>
       <c r="F22">
-        <v>2.41576880132196</v>
+        <v>3.793756534590699</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.376145092587365</v>
+        <v>2.372419920501343</v>
       </c>
       <c r="J22">
-        <v>0.05370968773956442</v>
+        <v>0.1433735201173132</v>
       </c>
       <c r="K22">
-        <v>2.245503900511977</v>
+        <v>1.455515332997493</v>
       </c>
       <c r="L22">
-        <v>0.2442746698890801</v>
+        <v>0.3514859778497907</v>
       </c>
       <c r="M22">
-        <v>0.4266798379267414</v>
+        <v>0.3955707178914949</v>
       </c>
       <c r="N22">
-        <v>1.886316831697741</v>
+        <v>3.912018721001672</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.059671139312343</v>
+        <v>1.584358976894748</v>
       </c>
       <c r="C23">
-        <v>0.2807719478223589</v>
+        <v>0.1057093647558531</v>
       </c>
       <c r="D23">
-        <v>0.009834340469641489</v>
+        <v>0.01258932705634308</v>
       </c>
       <c r="E23">
-        <v>0.0215920501356397</v>
+        <v>0.06298768313286907</v>
       </c>
       <c r="F23">
-        <v>2.376316078267905</v>
+        <v>3.789867789205232</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.360439675634908</v>
+        <v>2.371940745398177</v>
       </c>
       <c r="J23">
-        <v>0.05402556660759394</v>
+        <v>0.1435544703980547</v>
       </c>
       <c r="K23">
-        <v>2.16316829849481</v>
+        <v>1.436987807138621</v>
       </c>
       <c r="L23">
-        <v>0.2378949269180879</v>
+        <v>0.3505140596673328</v>
       </c>
       <c r="M23">
-        <v>0.4123933449001171</v>
+        <v>0.3926733571748855</v>
       </c>
       <c r="N23">
-        <v>1.900460978187567</v>
+        <v>3.918684721568269</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.776046751874674</v>
+        <v>1.522722033337999</v>
       </c>
       <c r="C24">
-        <v>0.2377496682748301</v>
+        <v>0.09491446096841116</v>
       </c>
       <c r="D24">
-        <v>0.008396776186767596</v>
+        <v>0.01223795766197</v>
       </c>
       <c r="E24">
-        <v>0.02117714088838962</v>
+        <v>0.06315790469205318</v>
       </c>
       <c r="F24">
-        <v>2.234311506205543</v>
+        <v>3.777530500928634</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.305111407318087</v>
+        <v>2.371512225592234</v>
       </c>
       <c r="J24">
-        <v>0.0552726398694503</v>
+        <v>0.1442734977359255</v>
       </c>
       <c r="K24">
-        <v>1.856736864576931</v>
+        <v>1.368014918697895</v>
       </c>
       <c r="L24">
-        <v>0.2143171894973932</v>
+        <v>0.3470600447511885</v>
       </c>
       <c r="M24">
-        <v>0.3592891732037842</v>
+        <v>0.3820013371638424</v>
       </c>
       <c r="N24">
-        <v>1.958374877234803</v>
+        <v>3.945489154474203</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.478870220380003</v>
+        <v>1.458974061452722</v>
       </c>
       <c r="C25">
-        <v>0.1928132336270778</v>
+        <v>0.08343919201830374</v>
       </c>
       <c r="D25">
-        <v>0.006864348383633256</v>
+        <v>0.01187362266984238</v>
       </c>
       <c r="E25">
-        <v>0.02078302653290631</v>
+        <v>0.06338244389146563</v>
       </c>
       <c r="F25">
-        <v>2.095144051441508</v>
+        <v>3.769336608620165</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.253339019658696</v>
+        <v>2.374014663730293</v>
       </c>
       <c r="J25">
-        <v>0.05672417010475161</v>
+        <v>0.1451214210623206</v>
       </c>
       <c r="K25">
-        <v>1.535834425484978</v>
+        <v>1.296183350907938</v>
       </c>
       <c r="L25">
-        <v>0.1899778303054873</v>
+        <v>0.3438216699378174</v>
       </c>
       <c r="M25">
-        <v>0.3038334489720924</v>
+        <v>0.3711367947435278</v>
       </c>
       <c r="N25">
-        <v>2.029390211554357</v>
+        <v>3.977729850542161</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.41439309687118</v>
+        <v>1.266053372567313</v>
       </c>
       <c r="C2">
-        <v>0.07513119594497653</v>
+        <v>0.1606810873134776</v>
       </c>
       <c r="D2">
-        <v>0.0116182754094396</v>
+        <v>0.005745396096390465</v>
       </c>
       <c r="E2">
-        <v>0.06358328784659673</v>
+        <v>0.02053548684511863</v>
       </c>
       <c r="F2">
-        <v>3.767704608165189</v>
+        <v>2.003044937880659</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.378409290992209</v>
+        <v>1.221142610618585</v>
       </c>
       <c r="J2">
-        <v>0.1458084058800759</v>
+        <v>0.05788280501989362</v>
       </c>
       <c r="K2">
-        <v>1.245497301426269</v>
+        <v>1.306071289300093</v>
       </c>
       <c r="L2">
-        <v>0.3418581033704982</v>
+        <v>0.1728521528124745</v>
       </c>
       <c r="M2">
-        <v>0.3636948708781311</v>
+        <v>0.2642752963065007</v>
       </c>
       <c r="N2">
-        <v>4.004334293927499</v>
+        <v>2.088378956465235</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.385652285262694</v>
+        <v>1.1248767615362</v>
       </c>
       <c r="C3">
-        <v>0.06958702018067697</v>
+        <v>0.1393627634177506</v>
       </c>
       <c r="D3">
-        <v>0.01145343688971856</v>
+        <v>0.004990333622938437</v>
       </c>
       <c r="E3">
-        <v>0.06374172123274935</v>
+        <v>0.02039288758765867</v>
       </c>
       <c r="F3">
-        <v>3.769346261606387</v>
+        <v>1.946348379999293</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.382981102763537</v>
+        <v>1.202626298353657</v>
       </c>
       <c r="J3">
-        <v>0.1463132986270743</v>
+        <v>0.05872338836124502</v>
       </c>
       <c r="K3">
-        <v>1.212520268991852</v>
+        <v>1.153634761052558</v>
       </c>
       <c r="L3">
-        <v>0.3407908606219223</v>
+        <v>0.1616773012772228</v>
       </c>
       <c r="M3">
-        <v>0.3590000546155778</v>
+        <v>0.2381284682833034</v>
       </c>
       <c r="N3">
-        <v>4.024153980476456</v>
+        <v>2.132247747246446</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.36873286538119</v>
+        <v>1.039493058817669</v>
       </c>
       <c r="C4">
-        <v>0.06622488734093679</v>
+        <v>0.1264580798046211</v>
       </c>
       <c r="D4">
-        <v>0.01135633486415877</v>
+        <v>0.004527621650710856</v>
       </c>
       <c r="E4">
-        <v>0.06385006569862028</v>
+        <v>0.02031731991104468</v>
       </c>
       <c r="F4">
-        <v>3.771710713770716</v>
+        <v>1.914132886286339</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.386574929847782</v>
+        <v>1.19276898028707</v>
       </c>
       <c r="J4">
-        <v>0.1466427731050635</v>
+        <v>0.05926660770186132</v>
       </c>
       <c r="K4">
-        <v>1.192950057888055</v>
+        <v>1.061417978181538</v>
       </c>
       <c r="L4">
-        <v>0.3402659181184831</v>
+        <v>0.1550092589701393</v>
       </c>
       <c r="M4">
-        <v>0.3562897929574689</v>
+        <v>0.2223611158019985</v>
       </c>
       <c r="N4">
-        <v>4.037206725149879</v>
+        <v>2.161016221996121</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.362021437493667</v>
+        <v>1.004997198579929</v>
       </c>
       <c r="C5">
-        <v>0.06486530894530063</v>
+        <v>0.1212401925033504</v>
       </c>
       <c r="D5">
-        <v>0.01131780850657904</v>
+        <v>0.004339199593662357</v>
       </c>
       <c r="E5">
-        <v>0.06389700823586697</v>
+        <v>0.02028948376632744</v>
       </c>
       <c r="F5">
-        <v>3.773015631818694</v>
+        <v>1.901626700153301</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.388237422814512</v>
+        <v>1.189115933895607</v>
       </c>
       <c r="J5">
-        <v>0.1467819426260775</v>
+        <v>0.05949475698359041</v>
       </c>
       <c r="K5">
-        <v>1.185145767169928</v>
+        <v>1.024153676163849</v>
       </c>
       <c r="L5">
-        <v>0.3400848518814286</v>
+        <v>0.1523379484664744</v>
       </c>
       <c r="M5">
-        <v>0.3552287840750807</v>
+        <v>0.2160025283144762</v>
       </c>
       <c r="N5">
-        <v>4.042748035554368</v>
+        <v>2.173188355547154</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.360918097843665</v>
+        <v>0.9992864399129076</v>
       </c>
       <c r="C6">
-        <v>0.06464018590193632</v>
+        <v>0.1203760778205378</v>
       </c>
       <c r="D6">
-        <v>0.01131147455966364</v>
+        <v>0.004307918118824361</v>
       </c>
       <c r="E6">
-        <v>0.06390497185234167</v>
+        <v>0.02028503870219289</v>
       </c>
       <c r="F6">
-        <v>3.773252939854117</v>
+        <v>1.899586746557375</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.388525440517625</v>
+        <v>1.188530869500866</v>
       </c>
       <c r="J6">
-        <v>0.1468053482395923</v>
+        <v>0.05953304980948371</v>
       </c>
       <c r="K6">
-        <v>1.183860190781559</v>
+        <v>1.01798407515588</v>
       </c>
       <c r="L6">
-        <v>0.3400567723660615</v>
+        <v>0.1518970813772285</v>
       </c>
       <c r="M6">
-        <v>0.3550552312675705</v>
+        <v>0.2149505684489128</v>
       </c>
       <c r="N6">
-        <v>4.043681589290244</v>
+        <v>2.175236291606495</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.368641609684005</v>
+        <v>1.039026662018074</v>
       </c>
       <c r="C7">
-        <v>0.06620650906445746</v>
+        <v>0.1263875512024839</v>
       </c>
       <c r="D7">
-        <v>0.01135581104564309</v>
+        <v>0.004525080080828303</v>
       </c>
       <c r="E7">
-        <v>0.06385068746847633</v>
+        <v>0.0203169325963577</v>
       </c>
       <c r="F7">
-        <v>3.771726929723116</v>
+        <v>1.913961745105652</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.386596549001737</v>
+        <v>1.192718261420104</v>
       </c>
       <c r="J7">
-        <v>0.1466446301160014</v>
+        <v>0.05926965717787169</v>
       </c>
       <c r="K7">
-        <v>1.192844114838067</v>
+        <v>1.060914185355585</v>
       </c>
       <c r="L7">
-        <v>0.3402633430793429</v>
+        <v>0.1549730499980271</v>
       </c>
       <c r="M7">
-        <v>0.356275307781825</v>
+        <v>0.2222750983664099</v>
       </c>
       <c r="N7">
-        <v>4.037280557383774</v>
+        <v>2.161178578170137</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.404332501681523</v>
+        <v>1.217088565120321</v>
       </c>
       <c r="C8">
-        <v>0.07321081431493326</v>
+        <v>0.153288671514801</v>
       </c>
       <c r="D8">
-        <v>0.01156059212556215</v>
+        <v>0.00548480632502546</v>
       </c>
       <c r="E8">
-        <v>0.06363562419010105</v>
+        <v>0.02048379494670183</v>
       </c>
       <c r="F8">
-        <v>3.7679892804031</v>
+        <v>1.982937813830176</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.379822457075463</v>
+        <v>1.214434317955543</v>
       </c>
       <c r="J8">
-        <v>0.1459784586039472</v>
+        <v>0.05816699480781029</v>
       </c>
       <c r="K8">
-        <v>1.233986296130496</v>
+        <v>1.253204752123708</v>
       </c>
       <c r="L8">
-        <v>0.341463107890803</v>
+        <v>0.1689572828939916</v>
       </c>
       <c r="M8">
-        <v>0.3620403792188398</v>
+        <v>0.2551969582480176</v>
       </c>
       <c r="N8">
-        <v>4.010984824322193</v>
+        <v>2.103116964552427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.480081863559917</v>
+        <v>1.5779465408975</v>
       </c>
       <c r="C9">
-        <v>0.08728246959114472</v>
+        <v>0.2077824025312935</v>
       </c>
       <c r="D9">
-        <v>0.0119943642857443</v>
+        <v>0.007378712062635628</v>
       </c>
       <c r="E9">
-        <v>0.0633013118491661</v>
+        <v>0.02090895370734458</v>
       </c>
       <c r="F9">
-        <v>3.771413321634924</v>
+        <v>2.140306205127544</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.372775455262939</v>
+        <v>1.269803104642612</v>
       </c>
       <c r="J9">
-        <v>0.1448260928000966</v>
+        <v>0.05622115765418911</v>
       </c>
       <c r="K9">
-        <v>1.320037491808108</v>
+        <v>1.642807190926248</v>
       </c>
       <c r="L9">
-        <v>0.3448472720327089</v>
+        <v>0.1980439002030536</v>
       </c>
       <c r="M9">
-        <v>0.3747100147999305</v>
+        <v>0.3222972353531119</v>
       </c>
       <c r="N9">
-        <v>3.966424602519595</v>
+        <v>2.00438683344467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.539236436787519</v>
+        <v>1.852262240619638</v>
       </c>
       <c r="C10">
-        <v>0.09783098796006584</v>
+        <v>0.2492955272659856</v>
       </c>
       <c r="D10">
-        <v>0.01233218623664811</v>
+        <v>0.008785198600595123</v>
       </c>
       <c r="E10">
-        <v>0.06310849629422055</v>
+        <v>0.02128538285467307</v>
       </c>
       <c r="F10">
-        <v>3.780476821145058</v>
+        <v>2.271667763529123</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.371395330883999</v>
+        <v>1.319462060204515</v>
       </c>
       <c r="J10">
-        <v>0.1440726647764965</v>
+        <v>0.05492570220560111</v>
       </c>
       <c r="K10">
-        <v>1.38653359748227</v>
+        <v>1.939062166419546</v>
       </c>
       <c r="L10">
-        <v>0.3479592734737764</v>
+        <v>0.2206234314009663</v>
       </c>
       <c r="M10">
-        <v>0.3848471188867961</v>
+        <v>0.3735442744655444</v>
       </c>
       <c r="N10">
-        <v>3.937952070596396</v>
+        <v>1.941950112732272</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.566906207618956</v>
+        <v>1.97955683066516</v>
       </c>
       <c r="C11">
-        <v>0.1026765632288118</v>
+        <v>0.2686034465335752</v>
       </c>
       <c r="D11">
-        <v>0.01248992391104053</v>
+        <v>0.009430381721294623</v>
       </c>
       <c r="E11">
-        <v>0.06303214242175059</v>
+        <v>0.02147162968890282</v>
       </c>
       <c r="F11">
-        <v>3.786020607849537</v>
+        <v>2.335398381597287</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.371591185374257</v>
+        <v>1.344292317073609</v>
       </c>
       <c r="J11">
-        <v>0.1437500110240304</v>
+        <v>0.05436603634336379</v>
       </c>
       <c r="K11">
-        <v>1.417495914043172</v>
+        <v>2.076591360601952</v>
       </c>
       <c r="L11">
-        <v>0.3495102468378519</v>
+        <v>0.2312056185605371</v>
       </c>
       <c r="M11">
-        <v>0.3896381665626478</v>
+        <v>0.3973782600102638</v>
       </c>
       <c r="N11">
-        <v>3.925924507755965</v>
+        <v>1.91595442366112</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.577493034188478</v>
+        <v>2.028166161694969</v>
       </c>
       <c r="C12">
-        <v>0.1045182850908475</v>
+        <v>0.2759850564540614</v>
       </c>
       <c r="D12">
-        <v>0.01255022999182742</v>
+        <v>0.009675666675445171</v>
       </c>
       <c r="E12">
-        <v>0.06300485413346646</v>
+        <v>0.0215444149568782</v>
       </c>
       <c r="F12">
-        <v>3.788324018584575</v>
+        <v>2.360153319195831</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.371783695792601</v>
+        <v>1.354043478595671</v>
       </c>
       <c r="J12">
-        <v>0.1436307079409715</v>
+        <v>0.05415842056024545</v>
       </c>
       <c r="K12">
-        <v>1.429322913603443</v>
+        <v>2.129119811512737</v>
       </c>
       <c r="L12">
-        <v>0.3501169541936662</v>
+        <v>0.235261784291751</v>
       </c>
       <c r="M12">
-        <v>0.3914781673294812</v>
+        <v>0.4064873517221912</v>
       </c>
       <c r="N12">
-        <v>3.921502910547503</v>
+        <v>1.90647667364486</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.575208135486321</v>
+        <v>2.017678470651958</v>
       </c>
       <c r="C13">
-        <v>0.1041213337798865</v>
+        <v>0.2743920197050613</v>
       </c>
       <c r="D13">
-        <v>0.0125372166111255</v>
+        <v>0.009622793692990683</v>
       </c>
       <c r="E13">
-        <v>0.06301065899919056</v>
+        <v>0.02152863724280696</v>
       </c>
       <c r="F13">
-        <v>3.787818863707599</v>
+        <v>2.354793411323328</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.371736973379143</v>
+        <v>1.351927447843721</v>
       </c>
       <c r="J13">
-        <v>0.1436562741012679</v>
+        <v>0.0542029413823979</v>
       </c>
       <c r="K13">
-        <v>1.426771214694753</v>
+        <v>2.11778601582651</v>
       </c>
       <c r="L13">
-        <v>0.3499854277547598</v>
+        <v>0.2343859690100061</v>
       </c>
       <c r="M13">
-        <v>0.3910807471823077</v>
+        <v>0.4045216775816058</v>
       </c>
       <c r="N13">
-        <v>3.922449266193837</v>
+        <v>1.908501247264923</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.567775012338814</v>
+        <v>1.983547547443607</v>
       </c>
       <c r="C14">
-        <v>0.1028279460768715</v>
+        <v>0.2692092747227832</v>
       </c>
       <c r="D14">
-        <v>0.01249487387514137</v>
+        <v>0.009450540836876797</v>
       </c>
       <c r="E14">
-        <v>0.06302986487150353</v>
+        <v>0.02147757192352895</v>
       </c>
       <c r="F14">
-        <v>3.786206021541346</v>
+        <v>2.337422225645</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.371604652082382</v>
+        <v>1.345087407587343</v>
       </c>
       <c r="J14">
-        <v>0.1437401382429879</v>
+        <v>0.05434886880577672</v>
       </c>
       <c r="K14">
-        <v>1.418466880879691</v>
+        <v>2.080903591913284</v>
       </c>
       <c r="L14">
-        <v>0.3495597728623494</v>
+        <v>0.2315383156438315</v>
       </c>
       <c r="M14">
-        <v>0.3897890293091564</v>
+        <v>0.39812594090386</v>
       </c>
       <c r="N14">
-        <v>3.925558075141851</v>
+        <v>1.915167221367497</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.563236177670888</v>
+        <v>1.96269560374094</v>
       </c>
       <c r="C15">
-        <v>0.1020365967800103</v>
+        <v>0.2660441143088121</v>
       </c>
       <c r="D15">
-        <v>0.01246901222553731</v>
+        <v>0.009345163361000886</v>
       </c>
       <c r="E15">
-        <v>0.06304184044029792</v>
+        <v>0.02144659008067951</v>
       </c>
       <c r="F15">
-        <v>3.785244682885235</v>
+        <v>2.326864378952763</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.371539010511782</v>
+        <v>1.340943890137723</v>
       </c>
       <c r="J15">
-        <v>0.1437918820957851</v>
+        <v>0.05443881755120827</v>
       </c>
       <c r="K15">
-        <v>1.413393543551081</v>
+        <v>2.058372156196441</v>
       </c>
       <c r="L15">
-        <v>0.3493015697003869</v>
+        <v>0.2298005491246187</v>
       </c>
       <c r="M15">
-        <v>0.389001163452356</v>
+        <v>0.3942195359529634</v>
       </c>
       <c r="N15">
-        <v>3.927479628473321</v>
+        <v>1.91929864858173</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.53744341134302</v>
+        <v>1.843997456009077</v>
       </c>
       <c r="C16">
-        <v>0.09751526818632783</v>
+        <v>0.2480429993180735</v>
       </c>
       <c r="D16">
-        <v>0.01232195859034491</v>
+        <v>0.008743158529423312</v>
       </c>
       <c r="E16">
-        <v>0.06311371407302069</v>
+        <v>0.02127352145815919</v>
       </c>
       <c r="F16">
-        <v>3.78014309334867</v>
+        <v>2.267586963044835</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.371399097304497</v>
+        <v>1.317886622200071</v>
       </c>
       <c r="J16">
-        <v>0.1440941543176262</v>
+        <v>0.05496287876134609</v>
       </c>
       <c r="K16">
-        <v>1.38452445937935</v>
+        <v>1.93013422106705</v>
       </c>
       <c r="L16">
-        <v>0.3478606304910983</v>
+        <v>0.2199384666931081</v>
       </c>
       <c r="M16">
-        <v>0.384537619067757</v>
+        <v>0.3719978865988196</v>
       </c>
       <c r="N16">
-        <v>3.938756708394322</v>
+        <v>1.943699107201866</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.521814760772827</v>
+        <v>1.771852984878251</v>
       </c>
       <c r="C17">
-        <v>0.09475365245363321</v>
+        <v>0.2371146469158276</v>
       </c>
       <c r="D17">
-        <v>0.01223277906379039</v>
+        <v>0.008375353856163059</v>
       </c>
       <c r="E17">
-        <v>0.06316070969878851</v>
+        <v>0.02117126095216992</v>
       </c>
       <c r="F17">
-        <v>3.777377176514491</v>
+        <v>2.232274233222739</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.371524157595339</v>
+        <v>1.30433352299876</v>
       </c>
       <c r="J17">
-        <v>0.1442847260495732</v>
+        <v>0.05529200318225413</v>
       </c>
       <c r="K17">
-        <v>1.366996608479639</v>
+        <v>1.852207260584493</v>
       </c>
       <c r="L17">
-        <v>0.3470112668621397</v>
+        <v>0.2139708740472486</v>
       </c>
       <c r="M17">
-        <v>0.3818453182075316</v>
+        <v>0.3585051338685545</v>
       </c>
       <c r="N17">
-        <v>3.945911680021268</v>
+        <v>1.959298258907367</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.51289713901167</v>
+        <v>1.730590439483876</v>
       </c>
       <c r="C18">
-        <v>0.09316966517735636</v>
+        <v>0.2308681978867355</v>
       </c>
       <c r="D18">
-        <v>0.01218186814768174</v>
+        <v>0.008164294063945476</v>
       </c>
       <c r="E18">
-        <v>0.06318880997483056</v>
+        <v>0.02111384944089156</v>
       </c>
       <c r="F18">
-        <v>3.775920034399462</v>
+        <v>2.212334046839459</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.371673623390151</v>
+        <v>1.296747283203651</v>
       </c>
       <c r="J18">
-        <v>0.1443962288579037</v>
+        <v>0.05548409344385341</v>
       </c>
       <c r="K18">
-        <v>1.356982170309152</v>
+        <v>1.807642265864104</v>
       </c>
       <c r="L18">
-        <v>0.3465354753658332</v>
+        <v>0.2105674368305799</v>
       </c>
       <c r="M18">
-        <v>0.3803136910710023</v>
+        <v>0.3507929774655452</v>
       </c>
       <c r="N18">
-        <v>3.950114070315621</v>
+        <v>1.968495736973821</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.509890089377024</v>
+        <v>1.71665836450353</v>
       </c>
       <c r="C19">
-        <v>0.09263411213514416</v>
+        <v>0.2287597310964316</v>
       </c>
       <c r="D19">
-        <v>0.01216469662792008</v>
+        <v>0.008092911738859954</v>
       </c>
       <c r="E19">
-        <v>0.06319850820475992</v>
+        <v>0.02109464950279527</v>
       </c>
       <c r="F19">
-        <v>3.775449647402525</v>
+        <v>2.205644863915126</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.371737549639185</v>
+        <v>1.294213867813525</v>
       </c>
       <c r="J19">
-        <v>0.1444343068544409</v>
+        <v>0.05554960891609007</v>
       </c>
       <c r="K19">
-        <v>1.353602989561381</v>
+        <v>1.792595871497468</v>
       </c>
       <c r="L19">
-        <v>0.3463765707809756</v>
+        <v>0.2094199424273455</v>
       </c>
       <c r="M19">
-        <v>0.3797980161985564</v>
+        <v>0.3481898540107409</v>
       </c>
       <c r="N19">
-        <v>3.951551876601485</v>
+        <v>1.971647949799475</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.523471053613406</v>
+        <v>1.77950845310761</v>
       </c>
       <c r="C20">
-        <v>0.09504717324749379</v>
+        <v>0.2382738622269898</v>
       </c>
       <c r="D20">
-        <v>0.01224223283046655</v>
+        <v>0.008414455060048454</v>
       </c>
       <c r="E20">
-        <v>0.06315559629019774</v>
+        <v>0.02118200054953334</v>
       </c>
       <c r="F20">
-        <v>3.77765777296608</v>
+        <v>2.235994611874389</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.37150282091477</v>
+        <v>1.30575444434924</v>
       </c>
       <c r="J20">
-        <v>0.1442642437203929</v>
+        <v>0.055256678541868</v>
       </c>
       <c r="K20">
-        <v>1.368855533644279</v>
+        <v>1.860475805918895</v>
       </c>
       <c r="L20">
-        <v>0.3471003650357005</v>
+        <v>0.2146031071432333</v>
       </c>
       <c r="M20">
-        <v>0.3821301684794918</v>
+        <v>0.3599363783904366</v>
       </c>
       <c r="N20">
-        <v>3.945141012748309</v>
+        <v>1.957614249239086</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.569955348942358</v>
+        <v>1.993561238773395</v>
       </c>
       <c r="C21">
-        <v>0.1032076602482732</v>
+        <v>0.2707295916036117</v>
       </c>
       <c r="D21">
-        <v>0.01250729545467166</v>
+        <v>0.009501107700263134</v>
       </c>
       <c r="E21">
-        <v>0.06302417959648121</v>
+        <v>0.0214925089296365</v>
       </c>
       <c r="F21">
-        <v>3.786674214794928</v>
+        <v>2.34250727394145</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.371640306997278</v>
+        <v>1.347086813825214</v>
       </c>
       <c r="J21">
-        <v>0.1437154272525536</v>
+        <v>0.0543058887451604</v>
       </c>
       <c r="K21">
-        <v>1.420903292354183</v>
+        <v>2.091724226654719</v>
       </c>
       <c r="L21">
-        <v>0.3496842724076288</v>
+        <v>0.2323733770537331</v>
       </c>
       <c r="M21">
-        <v>0.3901677404762225</v>
+        <v>0.4000021797055027</v>
       </c>
       <c r="N21">
-        <v>3.924641333507424</v>
+        <v>1.913199153644797</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.600969999031122</v>
+        <v>2.135845323388367</v>
       </c>
       <c r="C22">
-        <v>0.1085807134528523</v>
+        <v>0.2923549269757189</v>
       </c>
       <c r="D22">
-        <v>0.01268387197209009</v>
+        <v>0.01021705229388914</v>
       </c>
       <c r="E22">
-        <v>0.06294776075781705</v>
+        <v>0.02170865709310021</v>
       </c>
       <c r="F22">
-        <v>3.793756534590699</v>
+        <v>2.41576880132196</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.372419920501343</v>
+        <v>1.376145092587393</v>
       </c>
       <c r="J22">
-        <v>0.1433735201173132</v>
+        <v>0.05370968773958218</v>
       </c>
       <c r="K22">
-        <v>1.455515332997493</v>
+        <v>2.245503900512034</v>
       </c>
       <c r="L22">
-        <v>0.3514859778497907</v>
+        <v>0.2442746698891654</v>
       </c>
       <c r="M22">
-        <v>0.3955707178914949</v>
+        <v>0.4266798379267343</v>
       </c>
       <c r="N22">
-        <v>3.912018721001672</v>
+        <v>1.886316831697727</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.584358976894748</v>
+        <v>2.059671139312513</v>
       </c>
       <c r="C23">
-        <v>0.1057093647558531</v>
+        <v>0.2807719478220747</v>
       </c>
       <c r="D23">
-        <v>0.01258932705634308</v>
+        <v>0.009834340469627278</v>
       </c>
       <c r="E23">
-        <v>0.06298768313286907</v>
+        <v>0.02159205013565213</v>
       </c>
       <c r="F23">
-        <v>3.789867789205232</v>
+        <v>2.376316078267891</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.371940745398177</v>
+        <v>1.360439675634908</v>
       </c>
       <c r="J23">
-        <v>0.1435544703980547</v>
+        <v>0.0540255666075069</v>
       </c>
       <c r="K23">
-        <v>1.436987807138621</v>
+        <v>2.163168298494838</v>
       </c>
       <c r="L23">
-        <v>0.3505140596673328</v>
+        <v>0.23789492691823</v>
       </c>
       <c r="M23">
-        <v>0.3926733571748855</v>
+        <v>0.4123933449001242</v>
       </c>
       <c r="N23">
-        <v>3.918684721568269</v>
+        <v>1.900460978187581</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.522722033337999</v>
+        <v>1.776046751874759</v>
       </c>
       <c r="C24">
-        <v>0.09491446096841116</v>
+        <v>0.237749668274887</v>
       </c>
       <c r="D24">
-        <v>0.01223795766197</v>
+        <v>0.008396776186774702</v>
       </c>
       <c r="E24">
-        <v>0.06315790469205318</v>
+        <v>0.0211771408883541</v>
       </c>
       <c r="F24">
-        <v>3.777530500928634</v>
+        <v>2.234311506205572</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.371512225592234</v>
+        <v>1.305111407318101</v>
       </c>
       <c r="J24">
-        <v>0.1442734977359255</v>
+        <v>0.05527263986946629</v>
       </c>
       <c r="K24">
-        <v>1.368014918697895</v>
+        <v>1.856736864576988</v>
       </c>
       <c r="L24">
-        <v>0.3470600447511885</v>
+        <v>0.2143171894974074</v>
       </c>
       <c r="M24">
-        <v>0.3820013371638424</v>
+        <v>0.3592891732037913</v>
       </c>
       <c r="N24">
-        <v>3.945489154474203</v>
+        <v>1.958374877234888</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.458974061452722</v>
+        <v>1.478870220380003</v>
       </c>
       <c r="C25">
-        <v>0.08343919201830374</v>
+        <v>0.1928132336269215</v>
       </c>
       <c r="D25">
-        <v>0.01187362266984238</v>
+        <v>0.006864348383842866</v>
       </c>
       <c r="E25">
-        <v>0.06338244389146563</v>
+        <v>0.02078302653289033</v>
       </c>
       <c r="F25">
-        <v>3.769336608620165</v>
+        <v>2.095144051441508</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.374014663730293</v>
+        <v>1.253339019658704</v>
       </c>
       <c r="J25">
-        <v>0.1451214210623206</v>
+        <v>0.05672417010471253</v>
       </c>
       <c r="K25">
-        <v>1.296183350907938</v>
+        <v>1.535834425484921</v>
       </c>
       <c r="L25">
-        <v>0.3438216699378174</v>
+        <v>0.1899778303055157</v>
       </c>
       <c r="M25">
-        <v>0.3711367947435278</v>
+        <v>0.3038334489720995</v>
       </c>
       <c r="N25">
-        <v>3.977729850542161</v>
+        <v>2.029390211554286</v>
       </c>
       <c r="O25">
         <v>0</v>
